--- a/todolist.xlsx
+++ b/todolist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macdavidgranjon/Dropbox/Post_Doc_Zurich_2017/WebApp_CaP_homeostasis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macdavidgranjon/Documents/WebApp_CaP_homeostasis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340"/>
   </bookViews>
   <sheets>
     <sheet name="To-Do List" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -64,31 +64,28 @@
     <t>Not Started</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>Task 1</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
     <t>Done/Overdue?</t>
   </si>
   <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>TO-DO LIST</t>
+    <t>Improve the global design</t>
+  </si>
+  <si>
+    <t>Meeting with Nathalie Debard about animations</t>
+  </si>
+  <si>
+    <t>write case studies</t>
+  </si>
+  <si>
+    <t>make video and audio tutorials</t>
+  </si>
+  <si>
+    <t>TO-DO LIST GENERAL PROJECT</t>
+  </si>
+  <si>
+    <t>TO-DO LIST SPECIFIC TASKS</t>
   </si>
 </sst>
 </file>
@@ -518,7 +515,7 @@
         <xdr:cNvPr id="4" name="To Do Year" descr="Tab marker for year">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -584,7 +581,7 @@
         <xdr:cNvPr id="3" name="To Do Year" descr="Cell fill shape ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -594,6 +591,141 @@
         <a:xfrm>
           <a:off x="11020425" y="0"/>
           <a:ext cx="1276350" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" rIns="0" bIns="91440" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1543048</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1097278</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>908685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="To Do Year" descr="Tab marker for year">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9937748" y="381000"/>
+          <a:ext cx="1090930" cy="908685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" rIns="0" bIns="91440" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="To Do Year" descr="Cell fill shape ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11026775" y="0"/>
+          <a:ext cx="1279525" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -650,6 +782,30 @@
     <tableColumn id="5" name="% Complete"/>
     <tableColumn id="9" name="Done/Overdue?" dataCellStyle="Done/Overdue">
       <calculatedColumnFormula>IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Notes" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="To Do List" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="A To-Do List with Task, Priority, Status, Start Date, Due Date, % Complete, Done/Overdue, and Notes"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ToDoList3" displayName="ToDoList3" ref="B12:I16" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B12:I16"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Task" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
+    <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
+    <tableColumn id="5" name="% Complete"/>
+    <tableColumn id="9" name="Done/Overdue?" dataCellStyle="Done/Overdue">
+      <calculatedColumnFormula>IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Notes" dataCellStyle="Normal"/>
   </tableColumns>
@@ -963,10 +1119,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B11" sqref="B11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -993,7 +1149,7 @@
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1023,29 +1179,29 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1">
-        <f ca="1">DATE(Calendar_Year, 11, 29)</f>
-        <v>43068</v>
+        <f ca="1">DATE(Calendar_Year, 9, 12)</f>
+        <v>42990</v>
       </c>
       <c r="F4" s="1">
         <f ca="1">ToDoList[[#This Row],[Start Date ]]+9</f>
-        <v>43077</v>
+        <v>42999</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1055,24 +1211,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1">
-        <f ca="1">DATE(Calendar_Year, 11, 19)</f>
-        <v>43058</v>
-      </c>
-      <c r="F5" s="1">
-        <f ca="1">ToDoList[[#This Row],[Start Date ]]+30</f>
-        <v>43088</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="3">
         <v>0</v>
       </c>
@@ -1083,22 +1233,16 @@
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1">
-        <f ca="1">DATE(Calendar_Year, 11, 9)</f>
-        <v>43048</v>
-      </c>
-      <c r="F6" s="1">
-        <f ca="1">ToDoList[[#This Row],[Start Date ]]+45</f>
-        <v>43093</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="3">
         <v>0</v>
       </c>
@@ -1109,22 +1253,16 @@
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1">
-        <f ca="1">DATE(Calendar_Year, 12, 29)</f>
-        <v>43098</v>
-      </c>
-      <c r="F7" s="1">
-        <f ca="1">ToDoList[[#This Row],[Start Date ]]+55</f>
-        <v>43153</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="3">
         <v>0</v>
       </c>
@@ -1133,13 +1271,97 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>2017</v>
+      </c>
+      <c r="I10" s="2">
+        <f ca="1">YEAR(TODAY())</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4">
+        <f ca="1">IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4">
+        <f ca="1">IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4">
+        <f ca="1">IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4">
+        <f ca="1">IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G4:G7">
-    <cfRule type="dataBar" priority="67">
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1152,28 +1374,42 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G16">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{09073169-F542-154C-9618-5BB32E05990F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="15">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a To-do list in this worksheet. Enter the year for this list in cell I1" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Worksheet title is in this cell" sqref="B2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Task in this column under this heading. Use heading filters to find specific entry" sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Priority in this column under this heading. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Status in this column under this heading.  Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this column under this heading" sqref="E3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select % Complete in this column. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection. A status bar indicates progress toward completion" sqref="G3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="I3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="I1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a To-do list in this worksheet. Enter the year for this list in cell I1" sqref="A1 A10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Worksheet title is in this cell" sqref="B2 B11"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Task in this column under this heading. Use heading filters to find specific entry" sqref="B3 B12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Priority in this column under this heading. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C3 C12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Status in this column under this heading.  Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D3 D12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this column under this heading" sqref="E3 E12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F3 F12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select % Complete in this column. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection. A status bar indicates progress toward completion" sqref="G3 G12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="H3 H12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="I3 I12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="I1 I10"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D7 D13:D16">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C7">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C7 C13:C16">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G7">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G7 G13:G16">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F7">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F7 F13:F16">
       <formula1>F4&gt;=E4</formula1>
     </dataValidation>
   </dataValidations>
@@ -1184,8 +1420,9 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -1203,7 +1440,19 @@
           <xm:sqref>G4:G7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="68" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
+          <x14:cfRule type="dataBar" id="{09073169-F542-154C-9618-5BB32E05990F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G13:G16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="70" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1221,6 +1470,25 @@
           </x14:cfRule>
           <xm:sqref>H4:H7</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{39EC9EE3-1290-0D43-BD3E-D7F4D01B1935}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H13:H16</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/todolist.xlsx
+++ b/todolist.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="To-Do List" sheetId="1" r:id="rId1"/>
+    <sheet name="todo case studies app" sheetId="2" r:id="rId2"/>
+    <sheet name="todo treatments app" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Calendar_Year">'To-Do List'!$I$1</definedName>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
   <si>
     <t>Task</t>
   </si>
@@ -86,6 +88,42 @@
   </si>
   <si>
     <t>TO-DO LIST SPECIFIC TASKS</t>
+  </si>
+  <si>
+    <t>Asap</t>
+  </si>
+  <si>
+    <t>update cases tudies app with the new design</t>
+  </si>
+  <si>
+    <t>update treatments app with the new design</t>
+  </si>
+  <si>
+    <t>add the legend on the background</t>
+  </si>
+  <si>
+    <t>start the app by a case study from the literature</t>
+  </si>
+  <si>
+    <t>end the app with a quiz</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>put notifications in red when not compatible with life</t>
+  </si>
+  <si>
+    <t>add kidney failure</t>
+  </si>
+  <si>
+    <t>color code inside sliders</t>
+  </si>
+  <si>
+    <t>ask with shiny developpers</t>
+  </si>
+  <si>
+    <t>write base case with dashed line</t>
   </si>
 </sst>
 </file>
@@ -259,7 +297,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -277,6 +315,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -636,13 +680,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1543048</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1097278</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>908685</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -702,13 +746,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -733,6 +777,148 @@
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" rIns="0" bIns="91440" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1543048</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1097278</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>908685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="To Do Year" descr="Tab marker for year">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9937748" y="4114800"/>
+          <a:ext cx="1090930" cy="375285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" rIns="0" bIns="91440" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1543048</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1097278</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>908685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="To Do Year" descr="Tab marker for year">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10128248" y="0"/>
+          <a:ext cx="1090930" cy="565785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -795,8 +981,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ToDoList3" displayName="ToDoList3" ref="B12:I16" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B12:I16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ToDoList3" displayName="ToDoList3" ref="B10:I14" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B10:I14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Task" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
@@ -806,6 +992,54 @@
     <tableColumn id="5" name="% Complete"/>
     <tableColumn id="9" name="Done/Overdue?" dataCellStyle="Done/Overdue">
       <calculatedColumnFormula>IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Notes" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="To Do List" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="A To-Do List with Task, Priority, Status, Start Date, Due Date, % Complete, Done/Overdue, and Notes"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ToDoList32" displayName="ToDoList32" ref="A2:H6" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A2:H6"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Task" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
+    <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
+    <tableColumn id="5" name="% Complete"/>
+    <tableColumn id="9" name="Done/Overdue?" dataCellStyle="Done/Overdue">
+      <calculatedColumnFormula>IF(AND(ToDoList32[[#This Row],[Status ]]="Complete",ToDoList32[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList32[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList32[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList32[[#This Row],[Due Date ]]),0,-1)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Notes" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="To Do List" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="A To-Do List with Task, Priority, Status, Start Date, Due Date, % Complete, Done/Overdue, and Notes"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ToDoList324" displayName="ToDoList324" ref="A2:H6" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A2:H6"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Task" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
+    <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
+    <tableColumn id="5" name="% Complete"/>
+    <tableColumn id="9" name="Done/Overdue?" dataCellStyle="Done/Overdue">
+      <calculatedColumnFormula>IF(AND(ToDoList324[[#This Row],[Status ]]="Complete",ToDoList324[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList324[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList324[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList324[[#This Row],[Due Date ]]),0,-1)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Notes" dataCellStyle="Normal"/>
   </tableColumns>
@@ -1119,10 +1353,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:I11"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1148,16 +1382,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
@@ -1200,8 +1434,7 @@
         <v>42990</v>
       </c>
       <c r="F4" s="1">
-        <f ca="1">ToDoList[[#This Row],[Start Date ]]+9</f>
-        <v>42999</v>
+        <v>43081</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1221,7 +1454,9 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="3">
         <v>0</v>
@@ -1241,8 +1476,12 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1">
+        <v>43070</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43160</v>
+      </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
@@ -1261,8 +1500,12 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1">
+        <v>43070</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43160</v>
+      </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
@@ -1271,54 +1514,99 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>2017</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I8" s="2">
         <f ca="1">YEAR(TODAY())</f>
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="5" t="s">
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4">
+        <f ca="1">IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4">
+        <f ca="1">IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="3"/>
@@ -1327,7 +1615,16 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="3"/>
@@ -1335,29 +1632,13 @@
         <f ca="1">IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4">
-        <f ca="1">IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4">
-        <f ca="1">IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+      <c r="I14" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G4:G7">
@@ -1374,7 +1655,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G16">
+  <conditionalFormatting sqref="G11:G14">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1389,27 +1670,27 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="15">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a To-do list in this worksheet. Enter the year for this list in cell I1" sqref="A1 A10"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Worksheet title is in this cell" sqref="B2 B11"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Task in this column under this heading. Use heading filters to find specific entry" sqref="B3 B12"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Priority in this column under this heading. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C3 C12"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Status in this column under this heading.  Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D3 D12"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this column under this heading" sqref="E3 E12"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F3 F12"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select % Complete in this column. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection. A status bar indicates progress toward completion" sqref="G3 G12"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="H3 H12"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="I3 I12"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="I1 I10"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D7 D13:D16">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a To-do list in this worksheet. Enter the year for this list in cell I1" sqref="A1 A8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Worksheet title is in this cell" sqref="B2 B9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Task in this column under this heading. Use heading filters to find specific entry" sqref="B3 B10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Priority in this column under this heading. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C3 C10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Status in this column under this heading.  Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D3 D10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this column under this heading" sqref="E3 E10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F3 F10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select % Complete in this column. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection. A status bar indicates progress toward completion" sqref="G3 G10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="H3 H10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="I3 I10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="I1 I8"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D7 D11:D14">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C7 C13:C16">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C7 C11:C14">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G7 G13:G16">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G7 G11:G14">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F7 F13:F16">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F11:F14 F4:F7">
       <formula1>F4&gt;=E4</formula1>
     </dataValidation>
   </dataValidations>
@@ -1449,7 +1730,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G13:G16</xm:sqref>
+          <xm:sqref>G11:G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="70" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -1487,7 +1768,390 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H13:H16</xm:sqref>
+          <xm:sqref>H11:H14</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4">
+        <f ca="1">IF(AND(ToDoList32[[#This Row],[Status ]]="Complete",ToDoList32[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList32[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList32[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList32[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4">
+        <f ca="1">IF(AND(ToDoList32[[#This Row],[Status ]]="Complete",ToDoList32[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList32[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList32[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList32[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4">
+        <f ca="1">IF(AND(ToDoList32[[#This Row],[Status ]]="Complete",ToDoList32[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList32[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList32[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList32[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4">
+        <f ca="1">IF(AND(ToDoList32[[#This Row],[Status ]]="Complete",ToDoList32[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList32[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList32[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList32[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F3850C6E-F4F8-124C-BCB1-C05767ECB347}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="13">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="E3:E6">
+      <formula1>E3&gt;=D3</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="F3:F6">
+      <formula1>"0%,25%,50%,75%,100%"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="B3:B6">
+      <formula1>"Low, Normal, High"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C3:C6">
+      <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="H2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="G2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select % Complete in this column. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection. A status bar indicates progress toward completion" sqref="F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="E2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this column under this heading" sqref="D2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Status in this column under this heading.  Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Priority in this column under this heading. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Task in this column under this heading. Use heading filters to find specific entry" sqref="A2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Worksheet title is in this cell" sqref="A1"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F3850C6E-F4F8-124C-BCB1-C05767ECB347}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F3:F6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{8CA7F4B0-B09E-9042-AB23-9663A17B4A89}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G3:G6</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4">
+        <f ca="1">IF(AND(ToDoList324[[#This Row],[Status ]]="Complete",ToDoList324[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList324[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList324[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList324[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4">
+        <f ca="1">IF(AND(ToDoList324[[#This Row],[Status ]]="Complete",ToDoList324[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList324[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList324[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList324[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0FA2E6F6-6AA5-FC49-A931-A1DB1D36EC2D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="13">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Worksheet title is in this cell" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Task in this column under this heading. Use heading filters to find specific entry" sqref="A2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Priority in this column under this heading. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Status in this column under this heading.  Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this column under this heading" sqref="D2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="E2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select % Complete in this column. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection. A status bar indicates progress toward completion" sqref="F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="G2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="H2"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C3:C6">
+      <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="B3:B6">
+      <formula1>"Low, Normal, High"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="F3:F6">
+      <formula1>"0%,25%,50%,75%,100%"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="E3:E6">
+      <formula1>E3&gt;=D3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0FA2E6F6-6AA5-FC49-A931-A1DB1D36EC2D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F3:F6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{A3962854-5E3E-7946-A1B4-CFD0DA4B2F75}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G3:G6</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/todolist.xlsx
+++ b/todolist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300"/>
   </bookViews>
   <sheets>
     <sheet name="To-Do List" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>Task</t>
   </si>
@@ -90,9 +90,6 @@
     <t>TO-DO LIST SPECIFIC TASKS</t>
   </si>
   <si>
-    <t>Asap</t>
-  </si>
-  <si>
     <t>update cases tudies app with the new design</t>
   </si>
   <si>
@@ -124,6 +121,15 @@
   </si>
   <si>
     <t>write base case with dashed line</t>
+  </si>
+  <si>
+    <t>Meeting planed in Lausanne</t>
+  </si>
+  <si>
+    <t>See with Olivier</t>
+  </si>
+  <si>
+    <t>see with Tara</t>
   </si>
 </sst>
 </file>
@@ -316,11 +322,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -559,7 +565,7 @@
         <xdr:cNvPr id="4" name="To Do Year" descr="Tab marker for year">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -625,7 +631,7 @@
         <xdr:cNvPr id="3" name="To Do Year" descr="Cell fill shape ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -694,7 +700,7 @@
         <xdr:cNvPr id="7" name="To Do Year" descr="Tab marker for year">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -760,7 +766,7 @@
         <xdr:cNvPr id="8" name="To Do Year" descr="Cell fill shape ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -834,7 +840,7 @@
         <xdr:cNvPr id="2" name="To Do Year" descr="Tab marker for year">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,7 +911,7 @@
         <xdr:cNvPr id="2" name="To Do Year" descr="Tab marker for year">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,8 +1361,8 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1382,16 +1388,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
@@ -1427,7 +1433,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1">
         <f ca="1">DATE(Calendar_Year, 9, 12)</f>
@@ -1437,7 +1443,7 @@
         <v>43081</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H4" s="4">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
@@ -1454,8 +1460,8 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
+      <c r="E5" s="6">
+        <v>43003</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="3">
@@ -1465,6 +1471,9 @@
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
@@ -1488,6 +1497,9 @@
       <c r="H6" s="4">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1563,7 +1575,7 @@
     </row>
     <row r="11" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -1581,7 +1593,7 @@
     </row>
     <row r="12" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1599,7 +1611,7 @@
     </row>
     <row r="13" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1614,10 +1626,13 @@
         <f ca="1">IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1633,7 +1648,7 @@
         <v>-1</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1780,7 +1795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1808,7 +1823,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1836,7 +1851,7 @@
     </row>
     <row r="3" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1854,13 +1869,13 @@
     </row>
     <row r="4" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1874,7 +1889,7 @@
     </row>
     <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -2014,7 +2029,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2042,7 +2057,7 @@
     </row>
     <row r="3" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2051,7 +2066,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>

--- a/todolist.xlsx
+++ b/todolist.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
   <si>
     <t>Task</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>see with Tara</t>
+  </si>
+  <si>
+    <t>Complete</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
         <xdr:cNvPr id="4" name="To Do Year" descr="Tab marker for year">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -631,7 +634,7 @@
         <xdr:cNvPr id="3" name="To Do Year" descr="Cell fill shape ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -700,7 +703,7 @@
         <xdr:cNvPr id="7" name="To Do Year" descr="Tab marker for year">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -766,7 +769,7 @@
         <xdr:cNvPr id="8" name="To Do Year" descr="Cell fill shape ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -840,7 +843,7 @@
         <xdr:cNvPr id="2" name="To Do Year" descr="Tab marker for year">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,7 +914,7 @@
         <xdr:cNvPr id="2" name="To Do Year" descr="Tab marker for year">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1362,7 +1365,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1458,18 +1461,18 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E5" s="6">
         <v>43003</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
@@ -1480,13 +1483,13 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1">
-        <v>43070</v>
+        <v>43004</v>
       </c>
       <c r="F6" s="1">
         <v>43160</v>

--- a/todolist.xlsx
+++ b/todolist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300"/>
+    <workbookView xWindow="340" yWindow="-19580" windowWidth="28800" windowHeight="16300"/>
   </bookViews>
   <sheets>
     <sheet name="To-Do List" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>Task</t>
   </si>
@@ -117,9 +117,6 @@
     <t>color code inside sliders</t>
   </si>
   <si>
-    <t>ask with shiny developpers</t>
-  </si>
-  <si>
     <t>write base case with dashed line</t>
   </si>
   <si>
@@ -129,10 +126,25 @@
     <t>See with Olivier</t>
   </si>
   <si>
-    <t>see with Tara</t>
-  </si>
-  <si>
     <t>Complete</t>
+  </si>
+  <si>
+    <t>Deferred</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Not necessary at this time</t>
+  </si>
+  <si>
+    <t>Canceled</t>
+  </si>
+  <si>
+    <t>When the design is frozen</t>
   </si>
 </sst>
 </file>
@@ -568,7 +580,7 @@
         <xdr:cNvPr id="4" name="To Do Year" descr="Tab marker for year">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -634,7 +646,7 @@
         <xdr:cNvPr id="3" name="To Do Year" descr="Cell fill shape ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -703,7 +715,7 @@
         <xdr:cNvPr id="7" name="To Do Year" descr="Tab marker for year">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -769,7 +781,7 @@
         <xdr:cNvPr id="8" name="To Do Year" descr="Cell fill shape ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -843,7 +855,7 @@
         <xdr:cNvPr id="2" name="To Do Year" descr="Tab marker for year">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -914,7 +926,7 @@
         <xdr:cNvPr id="2" name="To Do Year" descr="Tab marker for year">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1365,7 +1377,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1446,7 +1458,7 @@
         <v>43081</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="H4" s="4">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
@@ -1461,7 +1473,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="6">
         <v>43003</v>
@@ -1475,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1495,14 +1507,14 @@
         <v>43160</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="4">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1527,6 +1539,9 @@
       <c r="H7" s="4">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1584,14 +1599,16 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
       <c r="H11" s="4">
         <f ca="1">IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.15">
@@ -1611,6 +1628,9 @@
         <f ca="1">IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
@@ -1620,7 +1640,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1630,7 +1650,7 @@
         <v>-1</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
@@ -1641,17 +1661,19 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
       <c r="H14" s="4">
         <f ca="1">IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1821,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1860,11 +1882,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G3" s="4">
         <f ca="1">IF(AND(ToDoList32[[#This Row],[Status ]]="Complete",ToDoList32[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList32[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList32[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList32[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
@@ -1878,21 +1902,22 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="4">
         <f ca="1">IF(AND(ToDoList32[[#This Row],[Status ]]="Complete",ToDoList32[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList32[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList32[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList32[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -2005,7 +2030,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2062,6 +2087,12 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="3"/>
@@ -2070,6 +2101,12 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
